--- a/pchw.xlsx
+++ b/pchw.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\平行作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4.6" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,13 +201,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,28 +796,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.153535</c:v>
+                  <c:v>9.4399999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5507999999999996E-2</c:v>
+                  <c:v>7.3800000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4409000000000007E-2</c:v>
+                  <c:v>7.1199999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9895000000000003E-2</c:v>
+                  <c:v>1.225E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8819999999999996E-2</c:v>
+                  <c:v>2.4499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0018000000000006E-2</c:v>
+                  <c:v>2.6129999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0495000000000002E-2</c:v>
+                  <c:v>2.591E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3449000000000005E-2</c:v>
+                  <c:v>3.0669999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1827,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1946,7 +1945,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2296,7 +2294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2415,7 +2412,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2765,7 +2761,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2884,7 +2879,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3234,7 +3228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3353,7 +3346,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3703,7 +3695,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3822,7 +3813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9054,28 +9044,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9083,48 +9073,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.607561670226578</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>1.6262750373375419</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>1.707937037655042</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>1.7286084215266833</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>1.9187557799495112</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>2.1779558833959856</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>2.4198174912134154</v>
       </c>
@@ -9133,35 +9123,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.24412023317158948</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>0.42235320936594267</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0.44733556952269299</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.47312502035366527</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.42540528218321566</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0.36900381020614192</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0.32943349352637136</v>
       </c>
@@ -9187,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9226,57 +9216,57 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.153535</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9.5507999999999996E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9.4409000000000007E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.9895000000000003E-2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8.8819999999999996E-2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8.0018000000000006E-2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7.0495000000000002E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>6.3449000000000005E-2</v>
+      <c r="B2" s="1">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.6129999999999999E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.591E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0669999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9284,87 +9274,87 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
-        <v>1.607561670226578</v>
-      </c>
-      <c r="D5" s="9">
+        <v>1.2791327913279131</v>
+      </c>
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
-        <v>1.6262750373375419</v>
-      </c>
-      <c r="E5" s="9">
+        <v>1.3258426966292136</v>
+      </c>
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
-        <v>1.707937037655042</v>
-      </c>
-      <c r="F5" s="9">
+        <v>0.77061224489795921</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>1.7286084215266833</v>
-      </c>
-      <c r="G5" s="9">
+        <v>0.3853061224489796</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>1.9187557799495112</v>
-      </c>
-      <c r="H5" s="9">
+        <v>0.36127057022579412</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>2.1779558833959856</v>
-      </c>
-      <c r="I5" s="9">
+        <v>0.36433809340023154</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>2.4198174912134154</v>
+        <v>0.30779263123573525</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.24412023317158948</v>
-      </c>
-      <c r="D6" s="9">
+        <v>0.56355932203389858</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>0.42235320936594267</v>
-      </c>
-      <c r="E6" s="9">
+        <v>0.63135593220338959</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>0.44733556952269299</v>
-      </c>
-      <c r="F6" s="9">
+        <v>1.3968926553672316</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>0.47312502035366527</v>
-      </c>
-      <c r="G6" s="9">
+        <v>2.9941737288135588</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>0.42540528218321566</v>
-      </c>
-      <c r="H6" s="9">
+        <v>3.1216101694915253</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>0.36900381020614192</v>
-      </c>
-      <c r="I6" s="9">
+        <v>3.0354872881355934</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0.32943349352637136</v>
+        <v>3.5702179176755449</v>
       </c>
     </row>
   </sheetData>
@@ -9380,7 +9370,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9388,7 +9379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -9456,28 +9447,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9485,48 +9476,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.7656333038086802</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>2.8440576401769158</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>4.2188359788359788</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>4.7315452171849044</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>5.4688614540466398</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>6.2724984266834491</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>6.8548830811554335</v>
       </c>
@@ -9535,35 +9526,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.13273803551720675</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>2.7415471054479747E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>-1.729039162569812E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>1.4184308217116449E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>1.9424099528443838E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>1.9330457175345289E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>2.3864467026903067E-2</v>
       </c>
@@ -9657,28 +9648,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9686,48 +9677,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.6624796674498465</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>2.6670049289649174</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>3.6654712094042639</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>4.6154039136979428</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>5.8199936728883266</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>6.0696139887825806</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>6.4709813577207171</v>
       </c>
@@ -9736,35 +9727,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.2030222318856334</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>6.2428656846224943E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>3.0421626714500549E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>2.0832200902321032E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>6.1857911616024497E-3</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>2.5547643637549584E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>3.3755503614719809E-2</v>
       </c>
@@ -9858,28 +9849,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9887,48 +9878,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.0098522167487685</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>1.1021505376344085</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>1.2106299212598426</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>1.1121157323688968</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>2.6739130434782608</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>3.170103092783505</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>1.6576819407008085</v>
       </c>
@@ -9937,35 +9928,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.98048780487804876</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>0.86097560975609744</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0.76802168021680206</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.87398373983739841</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.2487804878048781</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0.20135501355013555</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0.5465737514518002</v>
       </c>
@@ -10069,28 +10060,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10098,48 +10089,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.9022595001711742</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>2.9698022447888826</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>3.2849541826780961</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>4.6188694929343308</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>5.4851924975320827</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>5.955519828510182</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>6.2537985368598763</v>
       </c>
@@ -10148,35 +10139,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>5.138126518491859E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>5.08413569693164E-3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>7.2557665196916574E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>2.0628993071177895E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>1.8770808962476404E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>2.9230030894747894E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>3.9888933167075882E-2</v>
       </c>
@@ -10270,28 +10261,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10299,48 +10290,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.607561670226578</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>1.6262750373375419</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>1.707937037655042</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>1.7286084215266833</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>1.9187557799495112</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>2.1779558833959856</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>2.4198174912134154</v>
       </c>
@@ -10349,35 +10340,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.24412023317158948</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>0.42235320936594267</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0.44733556952269299</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.47312502035366527</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.42540528218321566</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0.36900381020614192</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0.32943349352637136</v>
       </c>
@@ -10475,28 +10466,28 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10504,48 +10495,48 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>$B$2/C2</f>
         <v>1.607561670226578</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f>$B$2/D2</f>
         <v>1.6262750373375419</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>$B$2/E2</f>
         <v>1.707937037655042</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="C5:I5" si="0">$B$2/F2</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
         <v>1.7286084215266833</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>1.9187557799495112</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>2.1779558833959856</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>2.4198174912134154</v>
       </c>
@@ -10554,35 +10545,35 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" s="7" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
         <v>0.24412023317158948</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="C6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
         <v>0.42235320936594267</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0.44733556952269299</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.47312502035366527</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.42540528218321566</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0.36900381020614192</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0.32943349352637136</v>
       </c>

--- a/pchw.xlsx
+++ b/pchw.xlsx
@@ -9,17 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="4.6" sheetId="7" r:id="rId1"/>
-    <sheet name="4.7" sheetId="6" r:id="rId2"/>
-    <sheet name="4.8" sheetId="5" r:id="rId3"/>
-    <sheet name="4.9" sheetId="4" r:id="rId4"/>
-    <sheet name="4.12" sheetId="3" r:id="rId5"/>
-    <sheet name="5.11" sheetId="2" r:id="rId6"/>
-    <sheet name="6.8" sheetId="8" r:id="rId7"/>
-    <sheet name="6.13" sheetId="1" r:id="rId8"/>
+    <sheet name="4.7" sheetId="6" r:id="rId1"/>
+    <sheet name="4.8" sheetId="5" r:id="rId2"/>
+    <sheet name="4.9" sheetId="4" r:id="rId3"/>
+    <sheet name="4.12" sheetId="3" r:id="rId4"/>
+    <sheet name="5.11" sheetId="2" r:id="rId5"/>
+    <sheet name="6.13" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Processors</t>
   </si>
@@ -179,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +207,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,7 +317,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.6'!$B$1:$I$1</c:f>
+              <c:f>'4.7'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -322,33 +350,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.6'!$B$2:$I$2</c:f>
+              <c:f>'4.7'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.153535</c:v>
+                  <c:v>9.4399999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5507999999999996E-2</c:v>
+                  <c:v>7.3800000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4409000000000007E-2</c:v>
+                  <c:v>7.1199999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9895000000000003E-2</c:v>
+                  <c:v>1.225E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8819999999999996E-2</c:v>
+                  <c:v>2.4499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0018000000000006E-2</c:v>
+                  <c:v>2.6129999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0495000000000002E-2</c:v>
+                  <c:v>2.591E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3449000000000005E-2</c:v>
+                  <c:v>3.0669999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,7 +384,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA62-4F74-BDF5-8EC509236DE8}"/>
+              <c16:uniqueId val="{00000000-CF17-42EE-B22D-989A5ECA2B72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate exeution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.7'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.7'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.4399999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1466666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8879999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5733333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3485714285714286E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.18E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7126-4E94-95ED-7E4E3313FFD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,8 +757,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.25251056138575761"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -758,7 +889,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.7'!$B$1:$I$1</c:f>
+              <c:f>'4.8'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -791,33 +922,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.7'!$B$2:$I$2</c:f>
+              <c:f>'4.8'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.4399999999999996E-4</c:v>
+                  <c:v>1.9934E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3800000000000005E-4</c:v>
+                  <c:v>1.129E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1199999999999996E-4</c:v>
+                  <c:v>7.0089999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.225E-3</c:v>
+                  <c:v>4.725E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4499999999999999E-3</c:v>
+                  <c:v>4.2129999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6129999999999999E-3</c:v>
+                  <c:v>3.6449999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.591E-3</c:v>
+                  <c:v>3.1779999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0669999999999998E-3</c:v>
+                  <c:v>2.908E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +956,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF17-42EE-B22D-989A5ECA2B72}"/>
+              <c16:uniqueId val="{00000000-1EA2-4312-8B8C-1F93D0170054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9670000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6446666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9835000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9868000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3223333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8477142857142859E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.49175E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A61-4FCF-A27C-9B75D02B57ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,8 +1329,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.71565160615219636"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1227,7 +1461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:f>'4.9'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1260,33 +1494,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.8'!$B$2:$I$2</c:f>
+              <c:f>'4.9'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9934E-2</c:v>
+                  <c:v>1.8397E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.129E-2</c:v>
+                  <c:v>1.1065999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0089999999999996E-3</c:v>
+                  <c:v>6.8979999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.725E-3</c:v>
+                  <c:v>5.019E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2129999999999997E-3</c:v>
+                  <c:v>3.986E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6449999999999998E-3</c:v>
+                  <c:v>3.1610000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1779999999999998E-3</c:v>
+                  <c:v>3.0309999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.908E-3</c:v>
+                  <c:v>2.843E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,7 +1528,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EA2-4312-8B8C-1F93D0170054}"/>
+              <c16:uniqueId val="{00000000-24CB-4822-847E-6CB9381A9B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1985000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1323333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59925E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6794000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0661666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6281428571428571E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.299625E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B93-4874-8C3C-70CE523DBA9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,8 +1901,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.71345501087487617"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1696,7 +2033,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.9'!$B$1:$I$1</c:f>
+              <c:f>'4.12'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1729,33 +2066,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.9'!$B$2:$I$2</c:f>
+              <c:f>'4.12'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8397E-2</c:v>
+                  <c:v>6.1499999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1065999999999999E-2</c:v>
+                  <c:v>6.0899999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8979999999999996E-3</c:v>
+                  <c:v>5.5800000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.019E-3</c:v>
+                  <c:v>5.0799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.986E-3</c:v>
+                  <c:v>5.53E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1610000000000002E-3</c:v>
+                  <c:v>2.3000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0309999999999998E-3</c:v>
+                  <c:v>1.94E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.843E-3</c:v>
+                  <c:v>3.7100000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +2100,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24CB-4822-847E-6CB9381A9B10}"/>
+              <c16:uniqueId val="{00000000-D92A-4586-BD91-7E339505C10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.1499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0749999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.05E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5375E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.025E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7857142857142859E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6874999999999998E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-255C-40EC-B60C-9DF011D2A933}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1827,6 +2267,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1945,6 +2386,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2031,8 +2473,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.76617329753055996"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2163,7 +2605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.12'!$B$1:$I$1</c:f>
+              <c:f>'5.11'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2196,33 +2638,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.12'!$B$2:$I$2</c:f>
+              <c:f>'5.11'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.1499999999999999E-4</c:v>
+                  <c:v>1.1113E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0899999999999995E-4</c:v>
+                  <c:v>5.842E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5800000000000001E-4</c:v>
+                  <c:v>3.7420000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0799999999999999E-4</c:v>
+                  <c:v>3.3830000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.53E-4</c:v>
+                  <c:v>2.4060000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3000000000000001E-4</c:v>
+                  <c:v>2.026E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.94E-4</c:v>
+                  <c:v>1.866E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7100000000000002E-4</c:v>
+                  <c:v>1.7769999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2672,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D92A-4586-BD91-7E339505C10A}"/>
+              <c16:uniqueId val="{00000000-26E4-4C0F-8829-01A68D6F939D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1113E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5564999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7043333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7782499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2225999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8521666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5875714285714284E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.389125E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFE4-46F1-86E5-2351CF3C17FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2294,6 +2839,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2412,6 +2958,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2498,8 +3045,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.72883117781611728"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2630,7 +3177,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5.11'!$B$1:$I$1</c:f>
+              <c:f>'6.13'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2663,33 +3210,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5.11'!$B$2:$I$2</c:f>
+              <c:f>'6.13'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.1113E-2</c:v>
+                  <c:v>0.153535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.842E-3</c:v>
+                  <c:v>9.5507999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7420000000000001E-3</c:v>
+                  <c:v>9.4409000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3830000000000002E-3</c:v>
+                  <c:v>8.9895000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4060000000000002E-3</c:v>
+                  <c:v>8.8819999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.026E-3</c:v>
+                  <c:v>8.0018000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.866E-3</c:v>
+                  <c:v>7.0495000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7769999999999999E-3</c:v>
+                  <c:v>6.3449000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,7 +3244,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26E4-4C0F-8829-01A68D6F939D}"/>
+              <c16:uniqueId val="{00000000-F821-49F4-8548-88B8BC8463ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.153535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6767500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1178333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8383750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0707000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5589166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1933571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9191875000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3590-4410-A3C0-87EF66213C93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2761,6 +3411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2879,6 +3530,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2965,942 +3617,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6.8'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6.8'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.153535</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5507999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4409000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9895000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8819999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0018000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0495000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3449000000000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3934-4D3D-A8B3-D228C65A6F5D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.153535</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5507999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4409000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9895000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8819999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0018000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0495000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3449000000000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F821-49F4-8548-88B8BC8463ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.2258108593098021"/>
-          <c:h val="6.258737347911375E-2"/>
+          <c:w val="0.74860053531199866"/>
+          <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4209,86 +3927,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7385,1076 +7023,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8491,7 +7060,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8528,7 +7097,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8565,7 +7134,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8602,7 +7171,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8639,44 +7208,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8976,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9015,72 +7547,80 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.153535</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9.5507999999999996E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9.4409000000000007E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.9895000000000003E-2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8.8819999999999996E-2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8.0018000000000006E-2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7.0495000000000002E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>6.3449000000000005E-2</v>
+      <c r="B2" s="1">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.225E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.6129999999999999E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.591E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0669999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
+      <c r="B3" s="17">
+        <f>$B$2/B1</f>
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1466666666666665E-4</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8879999999999998E-4</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5733333333333333E-4</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3485714285714286E-4</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.18E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -9092,31 +7632,31 @@
       </c>
       <c r="C5" s="7">
         <f>$B$2/C2</f>
-        <v>1.607561670226578</v>
+        <v>1.2791327913279131</v>
       </c>
       <c r="D5" s="7">
         <f>$B$2/D2</f>
-        <v>1.6262750373375419</v>
+        <v>1.3258426966292136</v>
       </c>
       <c r="E5" s="7">
         <f>$B$2/E2</f>
-        <v>1.707937037655042</v>
+        <v>0.77061224489795921</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>1.7286084215266833</v>
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <v>0.3853061224489796</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9187557799495112</v>
+        <f t="shared" si="1"/>
+        <v>0.36127057022579412</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1779558833959856</v>
+        <f t="shared" si="1"/>
+        <v>0.36433809340023154</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4198174912134154</v>
+        <f t="shared" si="1"/>
+        <v>0.30779263123573525</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9129,231 +7669,30 @@
       </c>
       <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.24412023317158948</v>
+        <v>0.56355932203389858</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>0.42235320936594267</v>
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>0.63135593220338959</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.44733556952269299</v>
+        <f t="shared" si="2"/>
+        <v>1.3968926553672316</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.47312502035366527</v>
+        <f t="shared" si="2"/>
+        <v>2.9941737288135588</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.42540528218321566</v>
+        <f t="shared" si="2"/>
+        <v>3.1216101694915253</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.36900381020614192</v>
+        <f t="shared" si="2"/>
+        <v>3.0354872881355934</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32943349352637136</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9.4399999999999996E-4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.3800000000000005E-4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.1199999999999996E-4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.225E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.6129999999999999E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.591E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.0669999999999998E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <f>$B$2/B2</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <f>$B$2/C2</f>
-        <v>1.2791327913279131</v>
-      </c>
-      <c r="D5" s="7">
-        <f>$B$2/D2</f>
-        <v>1.3258426966292136</v>
-      </c>
-      <c r="E5" s="7">
-        <f>$B$2/E2</f>
-        <v>0.77061224489795921</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>0.3853061224489796</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36127057022579412</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36433809340023154</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.30779263123573525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="e">
-        <f>(1/B5-1/B1)/(1-1/B1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="7">
-        <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.56355932203389858</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>0.63135593220338959</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3968926553672316</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.9941737288135588</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.1216101694915253</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.0354872881355934</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5702179176755449</v>
       </c>
     </row>
@@ -9375,12 +7714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9447,43 +7786,51 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
+      <c r="B3" s="17">
+        <f>$B$2/B1</f>
+        <v>1.9934E-2</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
+        <v>9.9670000000000002E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6446666666666668E-3</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9835000000000001E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>3.9868000000000004E-3</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>3.3223333333333334E-3</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8477142857142859E-3</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.49175E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -9506,19 +7853,19 @@
         <v>4.2188359788359788</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
         <v>4.7315452171849044</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4688614540466398</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2724984266834491</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8548830811554335</v>
       </c>
     </row>
@@ -9535,28 +7882,237 @@
         <v>0.13273803551720675</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
         <v>2.7415471054479747E-2</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.729039162569812E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4184308217116449E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9424099528443838E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9330457175345289E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.3864467026903067E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.8397E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.1065999999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.8979999999999996E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.019E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.986E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1610000000000002E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.0309999999999998E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.843E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <f>$B$2/B1</f>
+        <v>1.8397E-2</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
+        <v>9.1985000000000001E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>6.1323333333333334E-3</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>4.59925E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>3.6794000000000002E-3</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>3.0661666666666667E-3</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.6281428571428571E-3</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.299625E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f>$B$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f>$B$2/C2</f>
+        <v>1.6624796674498465</v>
+      </c>
+      <c r="D5" s="7">
+        <f>$B$2/D2</f>
+        <v>2.6670049289649174</v>
+      </c>
+      <c r="E5" s="7">
+        <f>$B$2/E2</f>
+        <v>3.6654712094042639</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <v>4.6154039136979428</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>-1.729039162569812E-2</v>
+        <v>5.8199936728883266</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>6.0696139887825806</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4709813577207171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f>(1/B5-1/B1)/(1-1/B1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="7">
+        <f>(1/C5-1/C1)/(1-1/C1)</f>
+        <v>0.2030222318856334</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>6.2428656846224943E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0421626714500549E-2</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>1.4184308217116449E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0832200902321032E-2</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9424099528443838E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.1857911616024497E-3</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9330457175345289E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5547643637549584E-2</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3864467026903067E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3755503614719809E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9581,183 +8137,194 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.8397E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.1065999999999999E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.8979999999999996E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.019E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.986E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.1610000000000002E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.0309999999999998E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.843E-3</v>
+      <c r="B2" s="15">
+        <v>6.1499999999999999E-4</v>
+      </c>
+      <c r="C2" s="15">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>5.5800000000000001E-4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="F2" s="15">
+        <v>5.53E-4</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1.94E-4</v>
+      </c>
+      <c r="I2" s="15">
+        <v>3.7100000000000002E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
+      <c r="B3" s="17">
+        <f>$B$2/B1</f>
+        <v>6.1499999999999999E-4</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
+        <v>3.0749999999999999E-4</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.05E-4</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5375E-4</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>1.025E-4</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>8.7857142857142859E-5</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>7.6874999999999998E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="19">
         <f>$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="19">
         <f>$B$2/C2</f>
-        <v>1.6624796674498465</v>
-      </c>
-      <c r="D5" s="7">
+        <v>1.0098522167487685</v>
+      </c>
+      <c r="D5" s="19">
         <f>$B$2/D2</f>
-        <v>2.6670049289649174</v>
-      </c>
-      <c r="E5" s="7">
+        <v>1.1021505376344085</v>
+      </c>
+      <c r="E5" s="19">
         <f>$B$2/E2</f>
-        <v>3.6654712094042639</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>4.6154039136979428</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>5.8199936728883266</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>6.0696139887825806</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4709813577207171</v>
+        <v>1.2106299212598426</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <v>1.1121157323688968</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6739130434782608</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="1"/>
+        <v>3.170103092783505</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
+        <v>1.6576819407008085</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="e">
+      <c r="B6" s="19" t="e">
         <f>(1/B5-1/B1)/(1-1/B1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="19">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.2030222318856334</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>6.2428656846224943E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.0421626714500549E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0832200902321032E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>6.1857911616024497E-3</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.5547643637549584E-2</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.3755503614719809E-2</v>
+        <v>0.98048780487804876</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>0.86097560975609744</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.76802168021680206</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.87398373983739841</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.2487804878048781</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.20135501355013555</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.5465737514518002</v>
       </c>
     </row>
   </sheetData>
@@ -9782,10 +8349,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -9821,28 +8398,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6.1499999999999999E-4</v>
+        <v>1.1113E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0899999999999995E-4</v>
+        <v>5.842E-3</v>
       </c>
       <c r="D2" s="1">
-        <v>5.5800000000000001E-4</v>
+        <v>3.7420000000000001E-3</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0799999999999999E-4</v>
+        <v>3.3830000000000002E-3</v>
       </c>
       <c r="F2" s="1">
-        <v>5.53E-4</v>
+        <v>2.4060000000000002E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>2.3000000000000001E-4</v>
+        <v>2.026E-3</v>
       </c>
       <c r="H2" s="1">
-        <v>1.94E-4</v>
+        <v>1.866E-3</v>
       </c>
       <c r="I2" s="1">
-        <v>3.7100000000000002E-4</v>
+        <v>1.7769999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9850,28 +8427,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>0</v>
+        <f>$B$2/B1</f>
+        <v>1.1113E-2</v>
       </c>
       <c r="C3" s="8">
-        <v>0</v>
+        <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
+        <v>5.5564999999999998E-3</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.7043333333333333E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7782499999999999E-3</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.2225999999999999E-3</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.8521666666666667E-3</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5875714285714284E-3</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.389125E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9897,31 +8482,31 @@
       </c>
       <c r="C5" s="7">
         <f>$B$2/C2</f>
-        <v>1.0098522167487685</v>
+        <v>1.9022595001711742</v>
       </c>
       <c r="D5" s="7">
         <f>$B$2/D2</f>
-        <v>1.1021505376344085</v>
+        <v>2.9698022447888826</v>
       </c>
       <c r="E5" s="7">
         <f>$B$2/E2</f>
-        <v>1.2106299212598426</v>
+        <v>3.2849541826780961</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>1.1121157323688968</v>
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <v>4.6188694929343308</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.6739130434782608</v>
+        <f t="shared" si="1"/>
+        <v>5.4851924975320827</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>3.170103092783505</v>
+        <f t="shared" si="1"/>
+        <v>5.955519828510182</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6576819407008085</v>
+        <f t="shared" si="1"/>
+        <v>6.2537985368598763</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9934,31 +8519,31 @@
       </c>
       <c r="C6" s="7">
         <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.98048780487804876</v>
+        <v>5.138126518491859E-2</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>0.86097560975609744</v>
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>5.08413569693164E-3</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.76802168021680206</v>
+        <f t="shared" si="2"/>
+        <v>7.2557665196916574E-2</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.87398373983739841</v>
+        <f t="shared" si="2"/>
+        <v>2.0628993071177895E-2</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.2487804878048781</v>
+        <f t="shared" si="2"/>
+        <v>1.8770808962476404E-2</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.20135501355013555</v>
+        <f t="shared" si="2"/>
+        <v>2.9230030894747894E-2</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5465737514518002</v>
+        <f t="shared" si="2"/>
+        <v>3.9888933167075882E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9983,419 +8568,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.1113E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.842E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.7420000000000001E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.3830000000000002E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.4060000000000002E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.026E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.866E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.7769999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <f>$B$2/B2</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <f>$B$2/C2</f>
-        <v>1.9022595001711742</v>
-      </c>
-      <c r="D5" s="7">
-        <f>$B$2/D2</f>
-        <v>2.9698022447888826</v>
-      </c>
-      <c r="E5" s="7">
-        <f>$B$2/E2</f>
-        <v>3.2849541826780961</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>4.6188694929343308</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>5.4851924975320827</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>5.955519828510182</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>6.2537985368598763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="e">
-        <f>(1/B5-1/B1)/(1-1/B1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="7">
-        <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>5.138126518491859E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>5.08413569693164E-3</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>7.2557665196916574E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0628993071177895E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>1.8770808962476404E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.9230030894747894E-2</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.9888933167075882E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.153535</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9.5507999999999996E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9.4409000000000007E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.9895000000000003E-2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8.8819999999999996E-2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8.0018000000000006E-2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7.0495000000000002E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>6.3449000000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <f>$B$2/B2</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <f>$B$2/C2</f>
-        <v>1.607561670226578</v>
-      </c>
-      <c r="D5" s="7">
-        <f>$B$2/D2</f>
-        <v>1.6262750373375419</v>
-      </c>
-      <c r="E5" s="7">
-        <f>$B$2/E2</f>
-        <v>1.707937037655042</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
-        <v>1.7286084215266833</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9187557799495112</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1779558833959856</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4198174912134154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="e">
-        <f>(1/B5-1/B1)/(1-1/B1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="7">
-        <f>(1/C5-1/C1)/(1-1/C1)</f>
-        <v>0.24412023317158948</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
-        <v>0.42235320936594267</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.44733556952269299</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.47312502035366527</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.42540528218321566</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.36900381020614192</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32943349352637136</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10467,28 +8640,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
+        <f>B2</f>
+        <v>0.153535</v>
+      </c>
+      <c r="C3" s="10">
+        <f>$B$3/C1</f>
+        <v>7.6767500000000002E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
+        <v>5.1178333333333333E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>3.8383750000000001E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>3.0707000000000002E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5589166666666666E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1933571428571431E-2</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9191875000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -10496,13 +8677,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -10525,19 +8706,19 @@
         <v>1.707937037655042</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="0">$B$2/F2</f>
+        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
         <v>1.7286084215266833</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9187557799495112</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1779558833959856</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4198174912134154</v>
       </c>
     </row>
@@ -10554,27 +8735,27 @@
         <v>0.24412023317158948</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:I6" si="1">(1/D5-1/D1)/(1-1/D1)</f>
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
         <v>0.42235320936594267</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44733556952269299</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47312502035366527</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42540528218321566</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36900381020614192</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32943349352637136</v>
       </c>
     </row>

--- a/pchw.xlsx
+++ b/pchw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4.7" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="4.12" sheetId="3" r:id="rId4"/>
     <sheet name="5.11" sheetId="2" r:id="rId5"/>
     <sheet name="6.13" sheetId="1" r:id="rId6"/>
+    <sheet name="8.13" sheetId="9" r:id="rId7"/>
+    <sheet name="9.10" sheetId="8" r:id="rId8"/>
+    <sheet name="10.4" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Processors</t>
   </si>
@@ -53,8 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -177,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +242,42 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,6 +529,3425 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7126-4E94-95ED-7E4E3313FFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.25251056138575761"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.129E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0089999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.725E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2129999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6449999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1779999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.908E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EA2-4312-8B8C-1F93D0170054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.8'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9670000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6446666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9835000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9868000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3223333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8477142857142859E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.49175E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A61-4FCF-A27C-9B75D02B57ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.71565160615219636"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1065999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8979999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.019E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.986E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1610000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0309999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.843E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24CB-4822-847E-6CB9381A9B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.9'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1985000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1323333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59925E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6794000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0661666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6281428571428571E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.299625E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B93-4874-8C3C-70CE523DBA9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.71345501087487617"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.1499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.53E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.94E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7100000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D92A-4586-BD91-7E339505C10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.12'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.1499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0749999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.05E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5375E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.025E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7857142857142859E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6874999999999998E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-255C-40EC-B60C-9DF011D2A933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.76617329753055996"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1113E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.842E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7420000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3830000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4060000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.026E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.866E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7769999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26E4-4C0F-8829-01A68D6F939D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.11'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1113E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5564999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7043333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7782499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2225999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8521666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5875714285714284E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.389125E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFE4-46F1-86E5-2351CF3C17FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.72883117781611728"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.153535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5507999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4409000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9895000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8819999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0018000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0495000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3449000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F821-49F4-8548-88B8BC8463ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6.13'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.153535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6767500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1178333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8383750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0707000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5589166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1933571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9191875000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3590-4410-A3C0-87EF66213C93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.74860053531199866"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="dbl">
+              <a:noFill/>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.945320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.476642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6503909999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7402609999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1979350000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.831156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5723609999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3853310000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E23-42B0-A0F9-500B321FB06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10.945320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4726600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6484400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7363300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1890640000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8242200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.563617142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3681650000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E23-42B0-A0F9-500B321FB06E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -757,7 +4217,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15474927248591455"/>
           <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.25251056138575761"/>
+          <c:w val="0.74860053531199866"/>
           <c:h val="0.1251747469582275"/>
         </c:manualLayout>
       </c:layout>
@@ -827,7 +4287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -864,10 +4324,9 @@
             <c:v>real  execution time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd" cmpd="dbl">
+              <a:noFill/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -877,7 +4336,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -889,7 +4348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:f>'10.4'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -922,33 +4381,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.8'!$B$2:$I$2</c:f>
+              <c:f>'10.4'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9934E-2</c:v>
+                  <c:v>6.7284569999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.129E-2</c:v>
+                  <c:v>3.3690380000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0089999999999996E-3</c:v>
+                  <c:v>2.2489880000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.725E-3</c:v>
+                  <c:v>1.6880850000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2129999999999997E-3</c:v>
+                  <c:v>1.3505940000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6449999999999998E-3</c:v>
+                  <c:v>1.1270420000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1779999999999998E-3</c:v>
+                  <c:v>0.96837300000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.908E-3</c:v>
+                  <c:v>0.84666600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,7 +4415,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EA2-4312-8B8C-1F93D0170054}"/>
+              <c16:uniqueId val="{00000000-B612-40B0-8A7A-0D5A1514B35A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -992,7 +4451,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4.8'!$B$1:$I$1</c:f>
+              <c:f>'10.4'!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1025,33 +4484,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4.8'!$B$3:$I$3</c:f>
+              <c:f>'10.4'!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.9934E-2</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.7284569999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9670000000000002E-3</c:v>
+                  <c:v>3.3642284999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6446666666666668E-3</c:v>
+                  <c:v>2.2428189999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9835000000000001E-3</c:v>
+                  <c:v>1.6821142499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9868000000000004E-3</c:v>
+                  <c:v>1.3456914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3223333333333334E-3</c:v>
+                  <c:v>1.1214094999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8477142857142859E-3</c:v>
+                  <c:v>0.96120814285714284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.49175E-3</c:v>
+                  <c:v>0.84105712499999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +4518,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A61-4FCF-A27C-9B75D02B57ED}"/>
+              <c16:uniqueId val="{00000001-B612-40B0-8A7A-0D5A1514B35A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1123,7 +4582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1242,2295 +4700,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.71565160615219636"/>
-          <c:h val="0.1251747469582275"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.9'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.9'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8397E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1065999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8979999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.019E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.986E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1610000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0309999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.843E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24CB-4822-847E-6CB9381A9B10}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Estimate execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.9'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.9'!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8397E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1985000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1323333333333334E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.59925E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6794000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0661666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6281428571428571E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.299625E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B93-4874-8C3C-70CE523DBA9C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.71345501087487617"/>
-          <c:h val="0.1251747469582275"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.12'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.12'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.1499999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0899999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.53E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.94E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7100000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D92A-4586-BD91-7E339505C10A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Estimate execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.12'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.12'!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.1499999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0749999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.05E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5375E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.025E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7857142857142859E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6874999999999998E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-255C-40EC-B60C-9DF011D2A933}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.76617329753055996"/>
-          <c:h val="0.1251747469582275"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'5.11'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'5.11'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1113E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.842E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7420000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3830000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4060000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.026E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.866E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7769999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26E4-4C0F-8829-01A68D6F939D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Estimate execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'5.11'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'5.11'!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1113E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5564999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7043333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7782499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2225999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8521666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5875714285714284E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.389125E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFE4-46F1-86E5-2351CF3C17FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642903951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15474927248591455"/>
-          <c:y val="1.9934659896496652E-2"/>
-          <c:w val="0.72883117781611728"/>
-          <c:h val="0.1251747469582275"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.114232121314325"/>
-          <c:y val="0.10384795211312768"/>
-          <c:w val="0.85703554765703716"/>
-          <c:h val="0.73146660117275764"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>real  execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.153535</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5507999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4409000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9895000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8819999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0018000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0495000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3449000000000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F821-49F4-8548-88B8BC8463ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Estimate execution time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6.13'!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.153535</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6767500000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1178333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8383750000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0707000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5589166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1933571428571431E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9191875000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3590-4410-A3C0-87EF66213C93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642903951"/>
-        <c:axId val="642904783"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642903951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>processors</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642904783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642904783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time(seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3927,6 +5096,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6508,6 +7757,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7243,6 +9524,80 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -7508,11 +9863,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -7576,35 +9934,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="26">
         <f>$B$2/B1</f>
         <v>9.4399999999999996E-4</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="26">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>3.1466666666666665E-4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="26">
         <f t="shared" si="0"/>
         <v>1.8879999999999998E-4</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="26">
         <f t="shared" si="0"/>
         <v>1.5733333333333333E-4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
         <v>1.3485714285714286E-4</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="26">
         <f t="shared" si="0"/>
         <v>1.18E-4</v>
       </c>
@@ -7613,37 +9971,37 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.2791327913279131</v>
       </c>
       <c r="D5" s="7">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>1.3258426966292136</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>0.77061224489795921</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>0.3853061224489796</v>
       </c>
       <c r="G5" s="7">
@@ -7786,35 +10144,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="26">
         <f>$B$2/B1</f>
         <v>1.9934E-2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="26">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>9.9670000000000002E-3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>6.6446666666666668E-3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>4.9835000000000001E-3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="26">
         <f t="shared" si="0"/>
         <v>3.9868000000000004E-3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="26">
         <f t="shared" si="0"/>
         <v>3.3223333333333334E-3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
         <v>2.8477142857142859E-3</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="26">
         <f t="shared" si="0"/>
         <v>2.49175E-3</v>
       </c>
@@ -7823,37 +10181,37 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.7656333038086802</v>
       </c>
       <c r="D5" s="7">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>2.8440576401769158</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>4.2188359788359788</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>4.7315452171849044</v>
       </c>
       <c r="G5" s="7">
@@ -7995,35 +10353,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="26">
         <f>$B$2/B1</f>
         <v>1.8397E-2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="26">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>9.1985000000000001E-3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>6.1323333333333334E-3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>4.59925E-3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="26">
         <f t="shared" si="0"/>
         <v>3.6794000000000002E-3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="26">
         <f t="shared" si="0"/>
         <v>3.0661666666666667E-3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
         <v>2.6281428571428571E-3</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="26">
         <f t="shared" si="0"/>
         <v>2.299625E-3</v>
       </c>
@@ -8032,37 +10390,37 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.6624796674498465</v>
       </c>
       <c r="D5" s="7">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>2.6670049289649174</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>3.6654712094042639</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>4.6154039136979428</v>
       </c>
       <c r="G5" s="7">
@@ -8207,35 +10565,35 @@
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="26">
         <f>$B$2/B1</f>
         <v>6.1499999999999999E-4</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="26">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>3.0749999999999999E-4</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>2.05E-4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>1.5375E-4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="26">
         <f t="shared" si="0"/>
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="26">
         <f t="shared" si="0"/>
         <v>1.025E-4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
         <v>8.7857142857142859E-5</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="26">
         <f t="shared" si="0"/>
         <v>7.6874999999999998E-5</v>
       </c>
@@ -8244,37 +10602,37 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="19">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="19">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.0098522167487685</v>
       </c>
       <c r="D5" s="19">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>1.1021505376344085</v>
       </c>
       <c r="E5" s="19">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>1.2106299212598426</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>1.1121157323688968</v>
       </c>
       <c r="G5" s="19">
@@ -8426,35 +10784,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="28">
         <f>$B$2/B1</f>
         <v>1.1113E-2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="28">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>5.5564999999999998E-3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="28">
         <f t="shared" si="0"/>
         <v>3.7043333333333333E-3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="28">
         <f t="shared" si="0"/>
         <v>2.7782499999999999E-3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="28">
         <f t="shared" si="0"/>
         <v>2.2225999999999999E-3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="28">
         <f t="shared" si="0"/>
         <v>1.8521666666666667E-3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="28">
         <f t="shared" si="0"/>
         <v>1.5875714285714284E-3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="28">
         <f t="shared" si="0"/>
         <v>1.389125E-3</v>
       </c>
@@ -8463,37 +10821,37 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.9022595001711742</v>
       </c>
       <c r="D5" s="7">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>2.9698022447888826</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>3.2849541826780961</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>4.6188694929343308</v>
       </c>
       <c r="G5" s="7">
@@ -8568,7 +10926,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8639,74 +10997,74 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="28">
         <f>B2</f>
         <v>0.153535</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="30">
         <f>$B$3/C1</f>
         <v>7.6767500000000002E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
         <v>5.1178333333333333E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="30">
         <f t="shared" si="0"/>
         <v>3.8383750000000001E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="30">
         <f t="shared" si="0"/>
         <v>3.0707000000000002E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="30">
         <f t="shared" si="0"/>
         <v>2.5589166666666666E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="30">
         <f t="shared" si="0"/>
         <v>2.1933571428571431E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="30">
         <f t="shared" si="0"/>
         <v>1.9191875000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <f>$B$2/B2</f>
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>$B$2/C2</f>
+        <f t="shared" si="1"/>
         <v>1.607561670226578</v>
       </c>
       <c r="D5" s="7">
-        <f>$B$2/D2</f>
+        <f t="shared" si="1"/>
         <v>1.6262750373375419</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$2/E2</f>
+        <f t="shared" si="1"/>
         <v>1.707937037655042</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:I5" si="1">$B$2/F2</f>
+        <f t="shared" si="1"/>
         <v>1.7286084215266833</v>
       </c>
       <c r="G5" s="7">
@@ -8775,4 +11133,436 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10.945320000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.476642</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.6503909999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.7402609999999998</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.1979350000000002</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.831156</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.5723609999999999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.3853310000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <f>B2</f>
+        <v>10.945320000000001</v>
+      </c>
+      <c r="C3" s="23">
+        <f>$B$3/C1</f>
+        <v>5.4726600000000003</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
+        <v>3.6484400000000003</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" si="0"/>
+        <v>2.7363300000000002</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1890640000000001</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" si="0"/>
+        <v>1.8242200000000002</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="0"/>
+        <v>1.563617142857143</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3681650000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9985458242477783</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9983966101165604</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9942618604578182</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9798196943949664</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9772733726673213</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9610731886634181</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.9008699004064731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f>(1/B5-1/B1)/(1-1/B1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="25">
+        <f>(1/C5-1/C1)/(1-1/C1)</f>
+        <v>7.2761691755007796E-4</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>2.6737454912231779E-4</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="2"/>
+        <v>4.7886524407991793E-4</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="2"/>
+        <v>1.0131042308493196E-3</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="2"/>
+        <v>7.6043459670434017E-4</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="2"/>
+        <v>9.320117334775575E-4</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="2"/>
+        <v>1.7923903288607093E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6.7284569999999997</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.3690380000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.2489880000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.6880850000000001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.3505940000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.1270420000000001</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.96837300000000004</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.84666600000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f>B2</f>
+        <v>6.7284569999999997</v>
+      </c>
+      <c r="C3" s="10">
+        <f>$B$3/C1</f>
+        <v>3.3642284999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
+        <v>2.2428189999999999</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6821142499999999</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3456914</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1214094999999999</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.96120814285714284</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>0.84105712499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9971448823076496</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9917709654297839</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9858520157456523</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9818502081306439</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9700144271464586</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9482079735804279</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.9470027141753645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f>(1/B5-1/B1)/(1-1/B1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="7">
+        <f>(1/C5-1/C1)/(1-1/C1)</f>
+        <v>1.4295996838502578E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>1.3752781655586852E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1831836036107675E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>9.1079574410599801E-4</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0045393765613973E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2423353526670685E-3</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>9.526913610569121E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/pchw.xlsx
+++ b/pchw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\平行作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\平行\parallel-computation-hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098821A7-86AE-4C30-A77B-D0982F1789BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.7" sheetId="6" r:id="rId1"/>
@@ -18,12 +19,11 @@
     <sheet name="4.12" sheetId="3" r:id="rId4"/>
     <sheet name="5.11" sheetId="2" r:id="rId5"/>
     <sheet name="6.13" sheetId="1" r:id="rId6"/>
-    <sheet name="8.13" sheetId="9" r:id="rId7"/>
+    <sheet name="8.10" sheetId="9" r:id="rId7"/>
     <sheet name="9.10" sheetId="8" r:id="rId8"/>
     <sheet name="10.4" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>Processors</t>
   </si>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
@@ -182,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +259,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3750,7 +3765,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>real  execution time</c:v>
+            <c:strRef>
+              <c:f>'8.10'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="dbl">
@@ -3775,68 +3798,177 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="dbl">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5281-43BA-B8A6-30DC3FC11C66}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5281-43BA-B8A6-30DC3FC11C66}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5281-43BA-B8A6-30DC3FC11C66}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5281-43BA-B8A6-30DC3FC11C66}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:f>'8.10'!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9.10'!$B$2:$I$2</c:f>
+              <c:f>'8.10'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.945320000000001</c:v>
+                  <c:v>3.2584360000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.476642</c:v>
+                  <c:v>0.85562099999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6503909999999999</c:v>
+                  <c:v>0.41553299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7402609999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1979350000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.831156</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5723609999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3853310000000001</c:v>
+                  <c:v>0.28216400000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3844,7 +3976,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E23-42B0-A0F9-500B321FB06E}"/>
+              <c16:uniqueId val="{00000000-5281-43BA-B8A6-30DC3FC11C66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3880,66 +4012,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:f>'8.10'!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9.10'!$B$3:$I$3</c:f>
+              <c:f>'8.10'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10.945320000000001</c:v>
+                  <c:v>3.2584360000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4726600000000003</c:v>
+                  <c:v>0.81460900000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6484400000000003</c:v>
+                  <c:v>0.36204844444444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7363300000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1890640000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8242200000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.563617142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3681650000000001</c:v>
+                  <c:v>0.20365225000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +4055,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E23-42B0-A0F9-500B321FB06E}"/>
+              <c16:uniqueId val="{00000001-5281-43BA-B8A6-30DC3FC11C66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3966,7 +4074,8 @@
         <c:axId val="642903951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4011,7 +4120,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4130,7 +4238,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4288,6 +4395,575 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114232121314325"/>
+          <c:y val="0.10384795211312768"/>
+          <c:w val="0.85703554765703716"/>
+          <c:h val="0.73146660117275764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real  execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="dbl">
+              <a:noFill/>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.945320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.476642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6503909999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7402609999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1979350000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.831156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5723609999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3853310000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E23-42B0-A0F9-500B321FB06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimate execution time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9.10'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10.945320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4726600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6484400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7363300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1890640000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8242200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.563617142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3681650000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E23-42B0-A0F9-500B321FB06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="642903951"/>
+        <c:axId val="642904783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="642903951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642904783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642904783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Time(seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642903951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15474927248591455"/>
+          <c:y val="1.9934659896496652E-2"/>
+          <c:w val="0.74860053531199866"/>
+          <c:h val="0.1251747469582275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5176,6 +5852,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8789,6 +9505,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9321,7 +10553,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9358,7 +10596,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9395,7 +10639,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9432,7 +10682,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9469,7 +10725,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9506,7 +10768,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9528,20 +10796,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>131886</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>427161</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F52670-96E5-4128-B76C-A663498CC460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9566,6 +10840,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9578,7 +10895,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9860,7 +11183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9934,35 +11257,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="31">
         <f>$B$2/B1</f>
         <v>9.4399999999999996E-4</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="31">
         <f t="shared" si="0"/>
         <v>3.1466666666666665E-4</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="31">
         <f t="shared" si="0"/>
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <f t="shared" si="0"/>
         <v>1.8879999999999998E-4</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="31">
         <f t="shared" si="0"/>
         <v>1.5733333333333333E-4</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="31">
         <f t="shared" si="0"/>
         <v>1.3485714285714286E-4</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="31">
         <f t="shared" si="0"/>
         <v>1.18E-4</v>
       </c>
@@ -9971,14 +11294,14 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -10073,7 +11396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10144,35 +11467,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="31">
         <f>$B$2/B1</f>
         <v>1.9934E-2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>9.9670000000000002E-3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="31">
         <f t="shared" si="0"/>
         <v>6.6446666666666668E-3</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="31">
         <f t="shared" si="0"/>
         <v>4.9835000000000001E-3</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <f t="shared" si="0"/>
         <v>3.9868000000000004E-3</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="31">
         <f t="shared" si="0"/>
         <v>3.3223333333333334E-3</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="31">
         <f t="shared" si="0"/>
         <v>2.8477142857142859E-3</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="31">
         <f t="shared" si="0"/>
         <v>2.49175E-3</v>
       </c>
@@ -10181,14 +11504,14 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -10282,7 +11605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10353,35 +11676,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="31">
         <f>$B$2/B1</f>
         <v>1.8397E-2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>9.1985000000000001E-3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="31">
         <f t="shared" si="0"/>
         <v>6.1323333333333334E-3</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="31">
         <f t="shared" si="0"/>
         <v>4.59925E-3</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <f t="shared" si="0"/>
         <v>3.6794000000000002E-3</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="31">
         <f t="shared" si="0"/>
         <v>3.0661666666666667E-3</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="31">
         <f t="shared" si="0"/>
         <v>2.6281428571428571E-3</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="31">
         <f t="shared" si="0"/>
         <v>2.299625E-3</v>
       </c>
@@ -10390,14 +11713,14 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -10491,7 +11814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10565,35 +11888,35 @@
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="31">
         <f>$B$2/B1</f>
         <v>6.1499999999999999E-4</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>3.0749999999999999E-4</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="31">
         <f t="shared" si="0"/>
         <v>2.05E-4</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="31">
         <f t="shared" si="0"/>
         <v>1.5375E-4</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <f t="shared" si="0"/>
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="31">
         <f t="shared" si="0"/>
         <v>1.025E-4</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="31">
         <f t="shared" si="0"/>
         <v>8.7857142857142859E-5</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="31">
         <f t="shared" si="0"/>
         <v>7.6874999999999998E-5</v>
       </c>
@@ -10602,14 +11925,14 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -10703,7 +12026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10784,35 +12107,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="33">
         <f>$B$2/B1</f>
         <v>1.1113E-2</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="33">
         <f t="shared" ref="C3:I3" si="0">$B$2/C1</f>
         <v>5.5564999999999998E-3</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="33">
         <f t="shared" si="0"/>
         <v>3.7043333333333333E-3</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="33">
         <f t="shared" si="0"/>
         <v>2.7782499999999999E-3</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="33">
         <f t="shared" si="0"/>
         <v>2.2225999999999999E-3</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="33">
         <f t="shared" si="0"/>
         <v>1.8521666666666667E-3</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="33">
         <f t="shared" si="0"/>
         <v>1.5875714285714284E-3</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="33">
         <f t="shared" si="0"/>
         <v>1.389125E-3</v>
       </c>
@@ -10821,14 +12144,14 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -10922,7 +12245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10997,35 +12320,35 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="33">
         <f>B2</f>
         <v>0.153535</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="35">
         <f>$B$3/C1</f>
         <v>7.6767500000000002E-2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="35">
         <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
         <v>5.1178333333333333E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="35">
         <f t="shared" si="0"/>
         <v>3.8383750000000001E-2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="35">
         <f t="shared" si="0"/>
         <v>3.0707000000000002E-2</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="35">
         <f t="shared" si="0"/>
         <v>2.5589166666666666E-2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="35">
         <f t="shared" si="0"/>
         <v>2.1933571428571431E-2</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="35">
         <f t="shared" si="0"/>
         <v>1.9191875000000001E-2</v>
       </c>
@@ -11034,14 +12357,14 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -11136,24 +12459,161 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.2584360000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.85562099999999996</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.41553299999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.28216400000000003</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <f>B2</f>
+        <v>3.2584360000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>$B$3/C1</f>
+        <v>0.81460900000000003</v>
+      </c>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:I3" si="0">$B$3/D1</f>
+        <v>0.36204844444444445</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" si="0"/>
+        <v>0.20365225000000001</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:I5" si="1">$B$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8082702504964234</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.8415817756953121</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>11.548021717866204</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f>(1/B5-1/B1)/(1-1/B1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="25">
+        <f>(1/C5-1/C1)/(1-1/C1)</f>
+        <v>1.6781875312777823E-2</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:I6" si="2">(1/D5-1/D1)/(1-1/D1)</f>
+        <v>1.8465952684048433E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="2"/>
+        <v>2.570124644665929E-2</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11353,12 +12813,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
